--- a/biology/Médecine/Rouget_du_porc_(maladie_professionnelle)/Rouget_du_porc_(maladie_professionnelle).xlsx
+++ b/biology/Médecine/Rouget_du_porc_(maladie_professionnelle)/Rouget_du_porc_(maladie_professionnelle).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article décrit les critères administratifs pour qu'une infection par le rouget du porc soit reconnue comme maladie professionnelle.
 Ce sujet relève du domaine de la législation sur la protection sociale et a un caractère davantage  juridique que médical. Pour la description clinique de la maladie se reporter à l'article suivant :
@@ -514,11 +526,52 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Régime général
-Régime agricole
+          <t>Régime général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Rouget_du_porc_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rouget_du_porc_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Législation en  France</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Régime agricole</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Le Rouget du porc est une zoonose transmise par les porcs, mais elle peut également l'être par les oiseaux, reptiles et même poissons. Elle est due à la bactérie Erysipelothrix rhusiopathiae. Cette maladie est considérée en France comme maladie professionnelle.
-Données professionnelles
-Données médicales</t>
+</t>
         </is>
       </c>
     </row>
